--- a/python-excel-how-object-work.xlsx
+++ b/python-excel-how-object-work.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27031"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\blog-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{882CDE15-3DDB-4AF5-B3CD-125EFB752706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{686D02C4-4CF6-4957-8702-26F3EA91B622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{5126D4A5-837A-4E20-A2E6-9D659AA5F7AC}"/>
   </bookViews>
@@ -35,62 +35,82 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="2">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <futureMetadata name="XLRICHVALUE" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="2"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-  <valueMetadata count="1">
-    <bk>
-      <rc t="2" v="0"/>
-    </bk>
-  </valueMetadata>
-</metadata>
-</file>
-
-<file path=xl/pythonScripts.xml><?xml version="1.0" encoding="utf-8"?>
-<pythonScripts xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/pythonscript">
-  <pythonScript>
-    <code>test = xl(%P2%, headers=True)
-test</code>
-  </pythonScript>
-</pythonScripts>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="3">
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>c</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+  <si>
+    <t>player</t>
+  </si>
+  <si>
+    <t>points</t>
+  </si>
+  <si>
+    <t>LeBron</t>
+  </si>
+  <si>
+    <t>Kareem</t>
+  </si>
+  <si>
+    <t>Karl</t>
+  </si>
+  <si>
+    <t>Kobe</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Place of Birth</t>
+  </si>
+  <si>
+    <t>Country of Birth</t>
+  </si>
+  <si>
+    <t>Abdul-Jabbar</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>Malone</t>
+  </si>
+  <si>
+    <t>Bryant</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Akron</t>
+  </si>
+  <si>
+    <t>New York City</t>
+  </si>
+  <si>
+    <t>Summerfield</t>
+  </si>
+  <si>
+    <t>Philadelphia</t>
+  </si>
+  <si>
+    <t>Brooklyn</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OH</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NY</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PA</t>
   </si>
 </sst>
 </file>
@@ -143,125 +163,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
-<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <global>
-    <keyFlags>
-      <key name="_Self">
-        <flag name="ExcludeFromFile" value="1"/>
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_DisplayString">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Flags">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Format">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_SubLabel">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Attribution">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Icon">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Display">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_CanonicalPropertyNames">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_ClassificationId">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-    </keyFlags>
-  </global>
-</rvTypesInfo>
-</file>
-
-<file path=xl/richData/rdarray.xml><?xml version="1.0" encoding="utf-8"?>
-<arrayData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="1">
-  <a r="2">
-    <v>2</v>
-    <v>3</v>
-  </a>
-</arrayData>
-</file>
-
-<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
-  <rv s="0">
-    <v>0</v>
-  </rv>
-  <rv s="1">
-    <v>DataFrame</v>
-    <v>1</v>
-    <v>0</v>
-  </rv>
-  <rv s="2">
-    <v>&lt;class 'pandas.core.frame.DataFrame'&gt;</v>
-    <v>DataFrame</v>
-    <v xml:space="preserve">   1
-0  2
-1  3</v>
-    <v>1</v>
-  </rv>
-</rvData>
-</file>
-
-<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
-  <s t="_array">
-    <k n="array" t="a"/>
-  </s>
-  <s t="_entity">
-    <k n="_DisplayString" t="s"/>
-    <k n="_ViewInfo" t="spb"/>
-    <k n="arrayPreview" t="r"/>
-  </s>
-  <s t="_python">
-    <k n="Python_type" t="s"/>
-    <k n="Python_typeName" t="s"/>
-    <k n="Python_str" t="s"/>
-    <k n="preview" t="r"/>
-  </s>
-</rvStructures>
-</file>
-
-<file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
-<supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
-  <spbData count="2">
-    <spb s="0">
-      <v>2</v>
-      <v>1</v>
-      <v>DataFrame</v>
-      <v>arrayPreview</v>
-    </spb>
-    <spb s="1">
-      <v>0</v>
-    </spb>
-  </spbData>
-</supportingPropertyBags>
-</file>
-
-<file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
-<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="2">
-  <s>
-    <k n="drw" t="i"/>
-    <k n="dcol" t="i"/>
-    <k n="name" t="s"/>
-    <k n="array" t="s"/>
-  </s>
-  <s>
-    <k n="ArrayCardInfo" t="spb"/>
-  </s>
-</spbStructures>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -581,58 +482,136 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF3CCDC4-FF77-464C-9B42-D2F988350D25}">
-  <dimension ref="B3:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="34.15" x14ac:dyDescent="1.05"/>
+  <cols>
+    <col min="6" max="6" width="10.8828125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.37109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="2:8" x14ac:dyDescent="1.05">
+    <row r="1" spans="1:8" x14ac:dyDescent="1.05">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="1.05">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>38923</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="1.05">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
       <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="e" cm="1" vm="1">
-        <f t="array" ref="D3">_xlfn._xlws.PY(0,1,B3:B5)</f>
-        <v>#VALUE!</v>
+        <v>38387</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="H3" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="1.05">
+    <row r="4" spans="1:8" x14ac:dyDescent="1.05">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
       <c r="B4">
-        <v>2</v>
+        <v>36928</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="1.05">
+    <row r="5" spans="1:8" x14ac:dyDescent="1.05">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
       <c r="B5">
-        <v>3</v>
+        <v>33643</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>2</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="1.05">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>32292</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
